--- a/Test.xlsx
+++ b/Test.xlsx
@@ -414,16 +414,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.615603426373973</v>
+        <v>2.270666655051691</v>
       </c>
       <c r="C2">
-        <v>30.52434529873189</v>
+        <v>12.72992083222262</v>
       </c>
       <c r="D2">
-        <v>20.0480318213724</v>
+        <v>2.341604349719491</v>
       </c>
       <c r="E2">
-        <v>15.75736464968153</v>
+        <v>13.98785828025478</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -431,16 +431,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.796291922038044</v>
+        <v>2.23501472854867</v>
       </c>
       <c r="C3">
-        <v>34.64480779548315</v>
+        <v>15.01176913342235</v>
       </c>
       <c r="D3">
-        <v>2.573046193684743</v>
+        <v>2.270584952375691</v>
       </c>
       <c r="E3">
-        <v>17.8234474522293</v>
+        <v>14.62480095541401</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -448,16 +448,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1.711725716432672</v>
+        <v>2.223863498484618</v>
       </c>
       <c r="C4">
-        <v>38.22820660264714</v>
+        <v>15.46773778269542</v>
       </c>
       <c r="D4">
-        <v>2.645217670528752</v>
+        <v>2.269903766881129</v>
       </c>
       <c r="E4">
-        <v>18.13395700636942</v>
+        <v>14.6327627388535</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -465,16 +465,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.641380287950117</v>
+        <v>2.213074709037468</v>
       </c>
       <c r="C5">
-        <v>40.73219903032283</v>
+        <v>16.63109783239459</v>
       </c>
       <c r="D5">
-        <v>2.510816776069107</v>
+        <v>2.263299796383852</v>
       </c>
       <c r="E5">
-        <v>21.08777866242038</v>
+        <v>15.18212579617834</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -482,16 +482,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1.586740844507026</v>
+        <v>2.200413842191057</v>
       </c>
       <c r="C6">
-        <v>43.60649705797364</v>
+        <v>17.27242912626944</v>
       </c>
       <c r="D6">
-        <v>2.654762292136053</v>
+        <v>2.253369220654676</v>
       </c>
       <c r="E6">
-        <v>20.40704617834395</v>
+        <v>16.06787420382165</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -499,16 +499,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.54767049975612</v>
+        <v>2.193153400452717</v>
       </c>
       <c r="C7">
-        <v>44.85014959398551</v>
+        <v>17.99017082461975</v>
       </c>
       <c r="D7">
-        <v>2.643336747710113</v>
+        <v>2.24118626747921</v>
       </c>
       <c r="E7">
-        <v>22.07404458598726</v>
+        <v>16.41819267515923</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -516,16 +516,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1.502989460432687</v>
+        <v>2.181188522049426</v>
       </c>
       <c r="C8">
-        <v>47.01388938569246</v>
+        <v>18.81425050510729</v>
       </c>
       <c r="D8">
-        <v>2.419001353622242</v>
+        <v>2.239279409882369</v>
       </c>
       <c r="E8">
-        <v>24.46257961783439</v>
+        <v>16.69088375796179</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -533,16 +533,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1.468293596379625</v>
+        <v>2.169695642821851</v>
       </c>
       <c r="C9">
-        <v>48.16302115315064</v>
+        <v>19.81171909798428</v>
       </c>
       <c r="D9">
-        <v>2.362349335934706</v>
+        <v>2.234543374997036</v>
       </c>
       <c r="E9">
-        <v>26.11464968152866</v>
+        <v>16.68789808917197</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -550,16 +550,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.423410656323587</v>
+        <v>2.16093568141649</v>
       </c>
       <c r="C10">
-        <v>49.92068298970672</v>
+        <v>20.46393496098779</v>
       </c>
       <c r="D10">
-        <v>2.460105777318311</v>
+        <v>2.225768078436517</v>
       </c>
       <c r="E10">
-        <v>26.90983280254777</v>
+        <v>17.7000398089172</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -567,16 +567,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.387611057755616</v>
+        <v>2.150940798335499</v>
       </c>
       <c r="C11">
-        <v>50.96897116075705</v>
+        <v>21.56095005382689</v>
       </c>
       <c r="D11">
-        <v>2.32657080471136</v>
+        <v>2.219726943666009</v>
       </c>
       <c r="E11">
-        <v>28.07722929936306</v>
+        <v>17.9359076433121</v>
       </c>
     </row>
   </sheetData>
